--- a/cookies0409/UseExcel/data/testcases.xlsx
+++ b/cookies0409/UseExcel/data/testcases.xlsx
@@ -1041,7 +1041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -2763,7 +2763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="C1" xSplit="2"/>

--- a/cookies0409/UseExcel/data/testcases.xlsx
+++ b/cookies0409/UseExcel/data/testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14265" windowWidth="28245"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13965" windowWidth="28215"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -48,7 +48,23 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -62,9 +78,15 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -72,7 +94,23 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -87,15 +125,37 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -110,44 +170,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -155,30 +177,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -199,7 +199,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,7 +223,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,73 +355,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,85 +373,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,9 +423,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,37 +441,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,17 +486,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,10 +526,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="3" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="5" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -538,133 +538,133 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="12" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="4" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="6" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="6" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="17" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="16" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="11" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="11" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="2" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1336,8 +1336,8 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="27" outlineLevelCol="0" outlineLevelRow="5"/>
@@ -1416,12 +1416,12 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+          <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+          <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"20111","data":null,"msg":"账号错误"}</t>
+          <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"20111","data":null,"msg":"密码错误"}</t>
+          <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
         </is>
       </c>
       <c r="G4" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"20103","data":null,"msg":"账号或密码不能为空"}</t>
+          <t>{"status":0,"code":"20103","data":null,"msg":"手机号不能为空"}</t>
         </is>
       </c>
       <c r="G5" s="3" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"20103","data":null,"msg":"账号或密码不能为空"}</t>
+          <t>{"status":0,"code":"20103","data":null,"msg":"密码不能为空"}</t>
         </is>
       </c>
       <c r="G6" s="3" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -2765,7 +2765,7 @@
   </sheetPr>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="C1" xSplit="2"/>
       <selection activeCell="A1" sqref="A1"/>
       <selection activeCell="D10" pane="topRight" sqref="D10"/>
@@ -4936,12 +4936,12 @@
       </c>
       <c r="G12" s="8" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20207","data":null,"msg":"修改失败，当前标已经是该状态"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -4974,12 +4974,12 @@
       </c>
       <c r="G13" s="8" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20207","data":null,"msg":"修改失败，当前标已经是该状态"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="G14" s="8" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为二审(初审中)状态"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5050,12 +5050,12 @@
       </c>
       <c r="G15" s="8" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为三审(复审中)状态"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5088,12 +5088,12 @@
       </c>
       <c r="G16" s="8" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5126,12 +5126,12 @@
       </c>
       <c r="G17" s="8" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：当前标为核保审批状态"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5164,12 +5164,12 @@
       </c>
       <c r="G18" s="8" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：当前标为平台终审状态"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5202,12 +5202,12 @@
       </c>
       <c r="G19" s="8" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20210","data":null,"msg":"不允许直接更新项目到还款中状态，请执行生成回款计划"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5240,12 +5240,12 @@
       </c>
       <c r="G20" s="8" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20211","data":null,"msg":"当前接口暂未开放该状态值更新"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5278,12 +5278,12 @@
       </c>
       <c r="G21" s="8" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20211","data":null,"msg":"当前接口暂未开放该状态值更新"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5316,12 +5316,12 @@
       </c>
       <c r="G22" s="8" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20211","data":null,"msg":"当前接口暂未开放该状态值更新"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H22" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5354,12 +5354,12 @@
       </c>
       <c r="G23" s="8" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20211","data":null,"msg":"当前接口暂未开放该状态值更新"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H23" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5392,12 +5392,12 @@
       </c>
       <c r="G24" s="8" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：审核通过，当前标为三审(复审中)状态"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5430,12 +5430,12 @@
       </c>
       <c r="G25" s="8" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：当前标为核保审批状态"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H25" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5468,12 +5468,12 @@
       </c>
       <c r="G26" s="8" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20210","data":null,"msg":"不允许直接更新项目到还款中状态，请执行生成回款计划"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5506,12 +5506,12 @@
       </c>
       <c r="G27" s="8" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20211","data":null,"msg":"当前接口暂未开放该状态值更新"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H27" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5544,12 +5544,12 @@
       </c>
       <c r="G28" s="8" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20211","data":null,"msg":"当前接口暂未开放该状态值更新"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H28" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5582,12 +5582,12 @@
       </c>
       <c r="G29" s="8" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：当前标为核保审批状态"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5620,12 +5620,12 @@
       </c>
       <c r="G30" s="8" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20211","data":null,"msg":"当前接口暂未开放该状态值更新"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H30" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5658,12 +5658,12 @@
       </c>
       <c r="G31" s="8" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20211","data":null,"msg":"当前接口暂未开放该状态值更新"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H31" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5696,12 +5696,12 @@
       </c>
       <c r="G32" s="8" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20211","data":null,"msg":"当前接口暂未开放该状态值更新"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H32" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5734,12 +5734,12 @@
       </c>
       <c r="G33" s="8" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20211","data":null,"msg":"当前接口暂未开放该状态值更新"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H33" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5772,12 +5772,12 @@
       </c>
       <c r="G34" s="8" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20211","data":null,"msg":"当前接口暂未开放该状态值更新"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H34" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5810,12 +5810,12 @@
       </c>
       <c r="G35" s="8" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：当前标为平台终审状态"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H35" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5848,12 +5848,12 @@
       </c>
       <c r="G36" s="8" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20211","data":null,"msg":"当前接口暂未开放该状态值更新"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H36" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -5886,12 +5886,12 @@
       </c>
       <c r="G37" s="8" t="inlineStr">
         <is>
-          <t>{"status":0,"code":"20211","data":null,"msg":"当前接口暂未开放该状态值更新"}</t>
+          <t>{"status":1,"code":"20206","data":null,"msg":"不存在该项目"}</t>
         </is>
       </c>
       <c r="H37" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FAIL</t>
         </is>
       </c>
     </row>
@@ -7482,12 +7482,12 @@
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
+          <t>{"status":0,"code":"20212","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="I4" s="8" t="n"/>
@@ -7521,12 +7521,12 @@
       </c>
       <c r="G5" s="3" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+          <t>{"status":0,"code":"20111","data":null,"msg":"用户名或密码错误"}</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>PASS</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="I5" s="8" t="n"/>
